--- a/excel files/testModelCompositions.xlsx
+++ b/excel files/testModelCompositions.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nubeusc-my.sharepoint.com/personal/lucas_vanderhauwaert_usc_es/Documents/Alquimia/PYOMO/pyomo_Alquimia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reboots\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="341" documentId="8_{2A883E6B-E9A7-44A2-9F1E-79234967191D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9FC9084-9017-49A1-8243-49BB1F2EFA5B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1B2C35-3EC0-4ADD-A21E-831B7BC30B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="1845" windowWidth="20730" windowHeight="11160" tabRatio="683" activeTab="2" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
+    <workbookView xWindow="-20610" yWindow="1845" windowWidth="20730" windowHeight="11160" tabRatio="683" activeTab="3" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="components" sheetId="1" r:id="rId1"/>
     <sheet name="reactors" sheetId="2" r:id="rId2"/>
     <sheet name="connectionMatrix" sheetId="11" r:id="rId3"/>
-    <sheet name="eg reactor sheet" sheetId="12" r:id="rId4"/>
-    <sheet name="connectionMatrixAlternative" sheetId="9" r:id="rId5"/>
-    <sheet name="inputCharacteristics" sheetId="10" r:id="rId6"/>
+    <sheet name="Figure" sheetId="13" r:id="rId4"/>
+    <sheet name="eg reactor sheet" sheetId="12" r:id="rId5"/>
+    <sheet name="connectionMatrixAlternative" sheetId="9" r:id="rId6"/>
+    <sheet name="inputCharacteristics" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -218,7 +219,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +235,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,15 +375,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -386,6 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,8 +441,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -453,7 +458,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9696450" y="209549"/>
-          <a:ext cx="2752725" cy="2619376"/>
+          <a:ext cx="2752725" cy="4600576"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -489,63 +494,93 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>connect by looking</a:t>
+            <a:t>connect by looking at which streams connect to the reactors (i.e wat are the reactor inputs and how are they connected)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>outputs of the interval in the row are the</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> at which streams connect to the reactors (i.e wat are the reactor inputs and how are they connected)</a:t>
+            <a:t> inputs for the interval in the column!! </a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>row names  go into name goes into column name!!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
             <a:t>0 -&gt; not connencted </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:rPr lang="es-ES" sz="1100"/>
             <a:t>1 -&gt; connected </a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>1's in the same colunm indiacte that the outputs of the intervals are mixed</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
             <a:t>string -&gt; defined how reject and permate are connected</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:rPr lang="es-ES" sz="1100"/>
             <a:t>options :</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:rPr lang="es-ES" sz="1100"/>
             <a:t>bool, permeat / reject </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:rPr lang="es-ES" sz="1100"/>
             <a:t>split, permeate/ reject  </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:rPr lang="es-ES" sz="1100"/>
             <a:t>mix permeate/ reject </a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
@@ -558,6 +593,85 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{361EB3AA-AC8F-45E9-B8D3-A6F13D78C77A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000">
+          <a:off x="2271714" y="119061"/>
+          <a:ext cx="9658350" cy="12906375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1300,16 +1414,16 @@
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1646,10 +1760,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9730D4B9-BF36-445D-9853-EF3DA446843F}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView topLeftCell="A19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,7 +1861,7 @@
       <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="14">
         <v>0</v>
       </c>
       <c r="C3" s="1">
@@ -1788,10 +1902,10 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="14">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
         <v>0</v>
       </c>
       <c r="D4" s="1">
@@ -1829,40 +1943,40 @@
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B5" s="14">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
         <v>0</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="16">
-        <v>0</v>
-      </c>
-      <c r="K5" s="16">
-        <v>0</v>
-      </c>
-      <c r="L5" s="16">
-        <v>0</v>
-      </c>
-      <c r="M5" s="16">
+      <c r="J5" s="13">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1870,16 +1984,16 @@
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="B6" s="14">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
         <v>0</v>
       </c>
       <c r="F6" s="1">
@@ -1911,19 +2025,19 @@
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="B7" s="14">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
         <v>0</v>
       </c>
       <c r="G7" s="1">
@@ -1952,22 +2066,22 @@
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="B8" s="14">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
         <v>0</v>
       </c>
       <c r="H8" s="1">
@@ -1993,25 +2107,25 @@
       <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="B9" s="14">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
         <v>0</v>
       </c>
       <c r="I9" s="1">
@@ -2034,28 +2148,28 @@
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="B10" s="14">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
         <v>0</v>
       </c>
       <c r="J10" s="1">
@@ -2075,31 +2189,31 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="B11" s="14">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14">
         <v>0</v>
       </c>
       <c r="K11" s="1">
@@ -2116,34 +2230,34 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="B12" s="14">
+        <v>0</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14">
         <v>0</v>
       </c>
       <c r="L12" s="1">
@@ -2157,97 +2271,42 @@
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
+      <c r="B13" s="14">
+        <v>0</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0</v>
+      </c>
+      <c r="L13" s="14">
         <v>0</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2287,6 +2346,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F93BD23-503B-4663-A53C-D2ECF36E5304}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AH23" sqref="AH23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3F8E89-7B44-47E5-AA46-AA30B8BCAB56}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -2306,95 +2380,95 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <v>0.88</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="8"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="8">
         <v>0.02</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5B695A-0D86-4BB9-B587-E34259BE4CFA}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
@@ -2433,10 +2507,10 @@
       <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2445,7 +2519,7 @@
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>0</v>
       </c>
       <c r="D2" s="1">
@@ -2471,11 +2545,10 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="1">
@@ -2498,8 +2571,6 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
       <c r="D4" s="1">
         <v>0</v>
       </c>
@@ -2523,9 +2594,6 @@
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
       <c r="E5" s="1">
         <v>0</v>
       </c>
@@ -2546,10 +2614,6 @@
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="7"/>
       <c r="F6" s="1">
         <v>0</v>
       </c>
@@ -2567,11 +2631,6 @@
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="2"/>
       <c r="G7" s="1">
         <v>0</v>
       </c>
@@ -2586,12 +2645,6 @@
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
       <c r="H8" s="1">
         <v>0</v>
       </c>
@@ -2603,96 +2656,9 @@
       <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
       <c r="I9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2731,7 +2697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152796B4-1D17-477F-9B4B-6D874BD25803}">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/excel files/testModelCompositions.xlsx
+++ b/excel files/testModelCompositions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reboots\PycharmProjects\Alquimia\excel files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1B2C35-3EC0-4ADD-A21E-831B7BC30B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23C2D1C-70FF-43A1-B785-8F4125F244F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="1845" windowWidth="20730" windowHeight="11160" tabRatio="683" activeTab="3" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
+    <workbookView xWindow="1560" yWindow="890" windowWidth="14840" windowHeight="9090" tabRatio="683" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="components" sheetId="1" r:id="rId1"/>
@@ -764,7 +764,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1062,26 +1062,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AE4236-3006-4E07-A9E2-DEE610CD0DBE}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1399,18 +1399,18 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1762,20 +1762,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9730D4B9-BF36-445D-9853-EF3DA446843F}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2349,11 +2349,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F93BD23-503B-4663-A53C-D2ECF36E5304}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="AH23" sqref="AH23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2368,24 +2368,24 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>38</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>41</v>
       </c>
@@ -2409,37 +2409,37 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="8"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>44</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>45</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>41</v>
       </c>
@@ -2474,12 +2474,12 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -2512,7 +2512,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -2705,14 +2705,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>26</v>
       </c>

--- a/excel files/testModelCompositions.xlsx
+++ b/excel files/testModelCompositions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23C2D1C-70FF-43A1-B785-8F4125F244F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271D97E2-FDF5-418E-9482-08E79EBCDEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="890" windowWidth="14840" windowHeight="9090" tabRatio="683" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" activeTab="2" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="components" sheetId="1" r:id="rId1"/>
@@ -1062,7 +1062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AE4236-3006-4E07-A9E2-DEE610CD0DBE}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
@@ -1762,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9730D4B9-BF36-445D-9853-EF3DA446843F}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2349,7 +2349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F93BD23-503B-4663-A53C-D2ECF36E5304}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="AH23" sqref="AH23"/>
     </sheetView>
   </sheetViews>
